--- a/fs_workbook.xlsx
+++ b/fs_workbook.xlsx
@@ -8,78 +8,112 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickk/ricktools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1856098-108F-E34D-9C2A-72305782F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75843801-8B29-D140-A43E-FA6B260BC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42100" yWindow="-260" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DFW" sheetId="17" r:id="rId1"/>
-    <sheet name="CTC" sheetId="10" r:id="rId2"/>
-    <sheet name="config" sheetId="16" r:id="rId3"/>
-    <sheet name="General Info JFB" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId5"/>
-    <sheet name="System IPs and Names" sheetId="8" r:id="rId6"/>
-    <sheet name="FS Implementation" sheetId="11" r:id="rId7"/>
-    <sheet name="SAN Implementation" sheetId="13" r:id="rId8"/>
-    <sheet name="Remote Support Requirements" sheetId="7" r:id="rId9"/>
+    <sheet name="WS" sheetId="18" r:id="rId2"/>
+    <sheet name="CTC" sheetId="10" r:id="rId3"/>
+    <sheet name="config" sheetId="16" r:id="rId4"/>
+    <sheet name="General Info JFB" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId6"/>
+    <sheet name="System IPs and Names" sheetId="8" r:id="rId7"/>
+    <sheet name="FS Implementation" sheetId="11" r:id="rId8"/>
+    <sheet name="SAN Implementation" sheetId="13" r:id="rId9"/>
+    <sheet name="Remote Support Requirements" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="address" localSheetId="1">CTC!$C$5</definedName>
+    <definedName name="address" localSheetId="2">CTC!$C$5</definedName>
     <definedName name="address" localSheetId="0">DFW!$C$5</definedName>
-    <definedName name="city" localSheetId="1">CTC!$C$6</definedName>
+    <definedName name="address" localSheetId="1">WS!$C$5</definedName>
+    <definedName name="city" localSheetId="2">CTC!$C$6</definedName>
     <definedName name="city" localSheetId="0">DFW!$C$6</definedName>
-    <definedName name="cluster_ip" localSheetId="1">CTC!$F$10</definedName>
+    <definedName name="city" localSheetId="1">WS!$C$6</definedName>
+    <definedName name="cluster_ip" localSheetId="2">CTC!$F$10</definedName>
     <definedName name="cluster_ip" localSheetId="0">DFW!$F$10</definedName>
-    <definedName name="cluster_name_ip" localSheetId="2">config!$B$1</definedName>
-    <definedName name="contact" localSheetId="1">CTC!$C$11</definedName>
+    <definedName name="cluster_ip" localSheetId="1">WS!$F$10</definedName>
+    <definedName name="cluster_name_ip" localSheetId="3">config!$B$1</definedName>
+    <definedName name="contact" localSheetId="2">CTC!$C$11</definedName>
     <definedName name="contact" localSheetId="0">DFW!$C$11</definedName>
-    <definedName name="country" localSheetId="1">CTC!$C$9</definedName>
+    <definedName name="contact" localSheetId="1">WS!$C$11</definedName>
+    <definedName name="country" localSheetId="2">CTC!$C$9</definedName>
     <definedName name="country" localSheetId="0">DFW!$C$9</definedName>
-    <definedName name="default_gateway" localSheetId="1">CTC!$F$16</definedName>
+    <definedName name="country" localSheetId="1">WS!$C$9</definedName>
+    <definedName name="default_gateway" localSheetId="2">CTC!$F$16</definedName>
     <definedName name="default_gateway" localSheetId="0">DFW!$F$16</definedName>
-    <definedName name="dns_server_1" localSheetId="1">CTC!$F$4</definedName>
+    <definedName name="default_gateway" localSheetId="1">WS!$F$16</definedName>
+    <definedName name="dns_server_1" localSheetId="2">CTC!$F$4</definedName>
     <definedName name="dns_server_1" localSheetId="0">DFW!$F$4</definedName>
-    <definedName name="dns_server_2" localSheetId="1">CTC!$F$5</definedName>
+    <definedName name="dns_server_1" localSheetId="1">WS!$F$4</definedName>
+    <definedName name="dns_server_2" localSheetId="2">CTC!$F$5</definedName>
     <definedName name="dns_server_2" localSheetId="0">DFW!$F$5</definedName>
-    <definedName name="email_notify_1" localSheetId="1">CTC!$C$24</definedName>
+    <definedName name="dns_server_2" localSheetId="1">WS!$F$5</definedName>
+    <definedName name="email_notify_1" localSheetId="2">CTC!$C$24</definedName>
     <definedName name="email_notify_1" localSheetId="0">DFW!$C$25</definedName>
-    <definedName name="email_notify_2" localSheetId="1">CTC!$C$25</definedName>
+    <definedName name="email_notify_1" localSheetId="1">WS!$C$25</definedName>
+    <definedName name="email_notify_2" localSheetId="2">CTC!$C$25</definedName>
     <definedName name="email_notify_2" localSheetId="0">DFW!$C$26</definedName>
-    <definedName name="email_notify_3" localSheetId="1">CTC!$C$26</definedName>
+    <definedName name="email_notify_2" localSheetId="1">WS!$C$26</definedName>
+    <definedName name="email_notify_3" localSheetId="2">CTC!$C$26</definedName>
     <definedName name="email_notify_3" localSheetId="0">DFW!$C$27</definedName>
-    <definedName name="email_notify_4" localSheetId="1">CTC!$C$27</definedName>
+    <definedName name="email_notify_3" localSheetId="1">WS!$C$27</definedName>
+    <definedName name="email_notify_4" localSheetId="2">CTC!$C$27</definedName>
     <definedName name="email_notify_4" localSheetId="0">DFW!$C$28</definedName>
-    <definedName name="location" localSheetId="1">CTC!$F$17</definedName>
+    <definedName name="email_notify_4" localSheetId="1">WS!$C$28</definedName>
+    <definedName name="location" localSheetId="2">CTC!$F$17</definedName>
     <definedName name="location" localSheetId="0">DFW!$F$17</definedName>
-    <definedName name="ntp_server" localSheetId="1">CTC!$F$6</definedName>
+    <definedName name="location" localSheetId="1">WS!$F$17</definedName>
+    <definedName name="ntp_server" localSheetId="2">CTC!$F$6</definedName>
     <definedName name="ntp_server" localSheetId="0">DFW!$F$6</definedName>
-    <definedName name="organization" localSheetId="1">CTC!$C$4</definedName>
+    <definedName name="ntp_server" localSheetId="1">WS!$F$6</definedName>
+    <definedName name="organization" localSheetId="2">CTC!$C$4</definedName>
     <definedName name="organization" localSheetId="0">DFW!$C$4</definedName>
-    <definedName name="organization" localSheetId="3">'General Info JFB'!$I$11</definedName>
-    <definedName name="password" localSheetId="2">config!$B$3</definedName>
-    <definedName name="service_ip_1" localSheetId="1">CTC!$F$11</definedName>
+    <definedName name="organization" localSheetId="4">'General Info JFB'!$I$11</definedName>
+    <definedName name="organization" localSheetId="1">WS!$C$4</definedName>
+    <definedName name="password" localSheetId="3">config!$B$3</definedName>
+    <definedName name="service_ip_1" localSheetId="2">CTC!$F$11</definedName>
     <definedName name="service_ip_1" localSheetId="0">DFW!$F$11</definedName>
-    <definedName name="service_ip_2" localSheetId="1">CTC!$F$12</definedName>
+    <definedName name="service_ip_1" localSheetId="1">WS!$F$11</definedName>
+    <definedName name="service_ip_2" localSheetId="2">CTC!$F$12</definedName>
     <definedName name="service_ip_2" localSheetId="0">DFW!$F$12</definedName>
-    <definedName name="service_ip_3" localSheetId="1">CTC!$F$13</definedName>
+    <definedName name="service_ip_2" localSheetId="1">WS!$F$12</definedName>
+    <definedName name="service_ip_3" localSheetId="2">CTC!$F$13</definedName>
     <definedName name="service_ip_3" localSheetId="0">DFW!$F$13</definedName>
-    <definedName name="service_ip_4" localSheetId="1">CTC!$F$14</definedName>
+    <definedName name="service_ip_3" localSheetId="1">WS!$F$13</definedName>
+    <definedName name="service_ip_4" localSheetId="2">CTC!$F$14</definedName>
     <definedName name="service_ip_4" localSheetId="0">DFW!$F$14</definedName>
-    <definedName name="smtp_port" localSheetId="1">CTC!$C$22</definedName>
+    <definedName name="service_ip_4" localSheetId="1">WS!$F$14</definedName>
+    <definedName name="smtp_port" localSheetId="2">CTC!$C$22</definedName>
     <definedName name="smtp_port" localSheetId="0">DFW!$C$23</definedName>
-    <definedName name="smtp_server" localSheetId="1">CTC!$C$21</definedName>
+    <definedName name="smtp_port" localSheetId="1">WS!$C$23</definedName>
+    <definedName name="smtp_server" localSheetId="2">CTC!$C$21</definedName>
     <definedName name="smtp_server" localSheetId="0">DFW!$C$22</definedName>
+    <definedName name="smtp_server" localSheetId="1">WS!$C$22</definedName>
+    <definedName name="snmp_community" localSheetId="0">DFW!$C$17</definedName>
+    <definedName name="snmp_community" localSheetId="1">WS!$C$17</definedName>
     <definedName name="snmp_events" localSheetId="0">DFW!$C$19</definedName>
-    <definedName name="state" localSheetId="1">CTC!$C$7</definedName>
+    <definedName name="snmp_events" localSheetId="1">WS!$C$19</definedName>
+    <definedName name="snmp_port" localSheetId="0">DFW!$C$18</definedName>
+    <definedName name="snmp_port" localSheetId="1">WS!$C$18</definedName>
+    <definedName name="snmp_server" localSheetId="0">DFW!$C$16</definedName>
+    <definedName name="snmp_server" localSheetId="1">WS!$C$16</definedName>
+    <definedName name="state" localSheetId="2">CTC!$C$7</definedName>
     <definedName name="state" localSheetId="0">DFW!$C$7</definedName>
-    <definedName name="subnet_mask" localSheetId="1">CTC!$F$15</definedName>
+    <definedName name="state" localSheetId="1">WS!$C$7</definedName>
+    <definedName name="subnet_mask" localSheetId="2">CTC!$F$15</definedName>
     <definedName name="subnet_mask" localSheetId="0">DFW!$F$15</definedName>
+    <definedName name="subnet_mask" localSheetId="1">WS!$F$15</definedName>
     <definedName name="system_name" localSheetId="0">DFW!$F$9</definedName>
-    <definedName name="timezone" localSheetId="1">CTC!$F$7</definedName>
+    <definedName name="system_name" localSheetId="1">WS!$F$9</definedName>
+    <definedName name="timezone" localSheetId="2">CTC!$F$7</definedName>
     <definedName name="timezone" localSheetId="0">DFW!$F$7</definedName>
-    <definedName name="username" localSheetId="2">config!$B$2</definedName>
-    <definedName name="zip" localSheetId="1">CTC!$C$8</definedName>
+    <definedName name="timezone" localSheetId="1">WS!$F$7</definedName>
+    <definedName name="username" localSheetId="3">config!$B$2</definedName>
+    <definedName name="zip" localSheetId="2">CTC!$C$8</definedName>
     <definedName name="zip" localSheetId="0">DFW!$C$8</definedName>
+    <definedName name="zip" localSheetId="1">WS!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -121,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="396">
   <si>
     <t>Subnet mask</t>
   </si>
@@ -1206,9 +1240,6 @@
     <t>DfwV7K02</t>
   </si>
   <si>
-    <t xml:space="preserve">10.150.10.90 </t>
-  </si>
-  <si>
     <t>10.150.10.88</t>
   </si>
   <si>
@@ -1263,16 +1294,55 @@
     <t>jeff.isaman@inmar.com</t>
   </si>
   <si>
-    <t>172.22.0.160</t>
-  </si>
-  <si>
     <t>3845 Grand Lakes Way, Ste 100</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>SNMP Events to capture</t>
+  </si>
+  <si>
+    <t>FlashSystem Site and System Configuration Worksheet for site: WS</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>415 E Third Street</t>
+  </si>
+  <si>
+    <t>Winston-Salem</t>
+  </si>
+  <si>
+    <t>WSV7k02</t>
+  </si>
+  <si>
+    <t>10.160.10.22</t>
+  </si>
+  <si>
+    <t>10.160.10.23</t>
+  </si>
+  <si>
+    <t>10.160.10.24</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>10.1.0.254</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>DFW</t>
+  </si>
+  <si>
+    <t>172.22.17.90</t>
+  </si>
+  <si>
+    <t>error/warning/info</t>
+  </si>
+  <si>
+    <t>10.150.10.90</t>
   </si>
 </sst>
 </file>
@@ -2000,14 +2070,131 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2038,123 +2225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2982,6 +3052,500 @@
         <xdr:cNvPr id="2" name="AutoShape 13" descr="Selected">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C9734A-8B0A-3F43-90D2-5F8A6E293F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5461000" y="3251200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 14" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCFB6E8-B0D6-3D46-B9C4-93F854B4A1EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 15" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91507739-7111-3C49-B3FB-1D4FB36F88E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 16" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F0DF6A-193E-5F4F-BABC-E55D51C7E0F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 17" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B729021-BEB4-1F47-9E66-8404364FD063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 18" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6952E1B0-921C-C044-8AB7-E51B84EA60A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 19" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CBA749-80B2-5140-A70D-FE2911651A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 20" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3C7664-C065-3B47-BD90-9D0CCC9BD797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 21" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA7EC33-8FE7-FB4A-A18A-C9F11A0C52A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 22" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC4B2BC-85FF-AD49-894A-F3D988D93AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 13" descr="Selected">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9960BA-DAB1-BC40-9F10-CC1F2A0E7D8E}"/>
             </a:ext>
           </a:extLst>
@@ -3456,7 +4020,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4334,8 +4898,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4355,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="54" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="B1" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4365,17 +4929,17 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="E3" s="64" t="s">
+      <c r="C3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
@@ -4383,17 +4947,17 @@
         <v>281</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E4" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>366</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="F4" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -4401,17 +4965,17 @@
         <v>282</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="F5" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
@@ -4419,17 +4983,17 @@
         <v>283</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="62" t="s">
-        <v>366</v>
-      </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="F6" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
@@ -4437,17 +5001,17 @@
         <v>284</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E7" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -4476,12 +5040,12 @@
       <c r="E9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -4493,7 +5057,7 @@
         <v>317</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -4505,13 +5069,13 @@
         <v>286</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>319</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -4523,13 +5087,13 @@
         <v>294</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>320</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -4541,7 +5105,7 @@
         <v>287</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>321</v>
@@ -4557,7 +5121,7 @@
         <v>288</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" s="55" t="s">
         <v>322</v>
@@ -4577,7 +5141,7 @@
         <v>96</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
@@ -4589,13 +5153,13 @@
         <v>65</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E16" s="55" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
@@ -4612,10 +5176,12 @@
       <c r="E17" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
+      <c r="F17" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -4643,10 +5209,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="55" t="s">
@@ -4715,7 +5281,7 @@
         <v>291</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E22" s="55" t="s">
         <v>325</v>
@@ -4752,7 +5318,7 @@
         <v>300</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -4760,7 +5326,657 @@
         <v>301</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="53"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="15">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:I7" xr:uid="{9DD42105-3E03-8E45-B462-E6F2C34D5CD1}">
+      <formula1>INDIRECT("tbl_timezones[timezone]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{859A3D6D-42A5-1E48-8BFD-304882B37F5F}">
+      <formula1>"error,error/warning,error/warning/info"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{48BB024A-B95A-9B48-940D-4515B8C63731}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{402E8A3A-A00D-844D-A7AC-088E4F3AD577}"/>
+  </hyperlinks>
+  <pageMargins left="0.15" right="0.15" top="0.5" bottom="0.5" header="0.05" footer="0.05"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967292" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74B4D3F-8E89-5642-B881-488DBD752321}">
+  <sheetPr>
+    <tabColor rgb="FF64CAE6"/>
+  </sheetPr>
+  <dimension ref="A2:K30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D5" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B2:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" xr:uid="{EE89CB29-6475-754E-84D6-F18D50FA953E}"/>
+    <hyperlink ref="A29" r:id="rId2" xr:uid="{CBCF8C03-B470-DE4A-BB77-2123DC322277}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC664440-6188-D14B-B0F0-4CF27EC52BFB}">
+  <sheetPr>
+    <tabColor rgb="FFA2CA62"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="54" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="E3" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="53">
+        <v>27101</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="E10" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="E15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="53">
+        <v>162</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="E20" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="53">
+        <v>514</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -4795,16 +6011,16 @@
     <mergeCell ref="F7:I7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:I7" xr:uid="{9DD42105-3E03-8E45-B462-E6F2C34D5CD1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{7670F26A-1212-EF4F-874E-6021434B22EC}">
+      <formula1>"error,error/warning,error/warning/info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:I7" xr:uid="{A5532613-63EC-D840-A841-1EFC1530A6C5}">
       <formula1>INDIRECT("tbl_timezones[timezone]")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{859A3D6D-42A5-1E48-8BFD-304882B37F5F}">
-      <formula1>"error,error/warning,error/warning/info"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{48BB024A-B95A-9B48-940D-4515B8C63731}"/>
-    <hyperlink ref="C25" r:id="rId2" xr:uid="{402E8A3A-A00D-844D-A7AC-088E4F3AD577}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{9FCFB192-5FFA-A849-B2B4-DCECF99A1B3E}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{87E36272-3C0E-0B46-8E07-9FF13B79D7C8}"/>
   </hyperlinks>
   <pageMargins left="0.15" right="0.15" top="0.5" bottom="0.5" header="0.05" footer="0.05"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967292" r:id="rId3"/>
@@ -4812,7 +6028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD86965-269F-B544-9F28-2E2F6C657F24}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
@@ -4851,17 +6067,17 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="E3" s="64" t="s">
+      <c r="C3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
@@ -4874,12 +6090,12 @@
       <c r="E4" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -4892,12 +6108,12 @@
       <c r="E5" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
@@ -4910,12 +6126,12 @@
       <c r="E6" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="69" t="s">
         <v>313</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
@@ -4928,12 +6144,12 @@
       <c r="E7" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -4962,12 +6178,12 @@
       <c r="E9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -5098,12 +6314,12 @@
       <c r="E17" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -5287,7 +6503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C3965-A6AE-214F-A358-2C9E3F355CA9}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
@@ -5295,7 +6511,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5305,7 +6521,7 @@
         <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
         <v>358</v>
@@ -5480,7 +6696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312D0E0C-BC12-F34D-B509-155A539DF61B}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
@@ -5518,133 +6734,133 @@
   <sheetData>
     <row r="1" spans="1:23" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="K2" s="66" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="K2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="K3" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68" t="s">
+      <c r="L3" s="100"/>
+      <c r="M3" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="67" t="s">
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="K4" s="67" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="K4" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="67" t="s">
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="K5" s="71" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="K5" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="72" t="s">
+      <c r="L5" s="104"/>
+      <c r="M5" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="71" t="s">
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
     </row>
     <row r="8" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -5673,20 +6889,20 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="7"/>
       <c r="M9" s="19" t="s">
         <v>13</v>
@@ -5705,18 +6921,18 @@
     <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="79"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="32" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
       <c r="L10" s="7"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -5724,29 +6940,29 @@
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="83"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="96"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
       <c r="L11" s="7"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -5754,23 +6970,23 @@
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="78"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="11" t="s">
         <v>106</v>
       </c>
@@ -5778,11 +6994,11 @@
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
       <c r="L12" s="7"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -5790,13 +7006,13 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="76">
+      <c r="Q12" s="82">
         <v>162</v>
       </c>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="78"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
@@ -5814,11 +7030,11 @@
       <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="I13" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
       <c r="L13" s="7"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -5826,11 +7042,11 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="78"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
@@ -5848,11 +7064,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
       <c r="L14" s="7"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -5860,13 +7076,13 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="76">
+      <c r="Q14" s="82">
         <v>514</v>
       </c>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="78"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
     </row>
@@ -5884,9 +7100,9 @@
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
       <c r="L15" s="7"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -5894,13 +7110,13 @@
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="76" t="s">
+      <c r="Q15" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="78"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
@@ -5918,9 +7134,9 @@
       <c r="H16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
       <c r="L16" s="7"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -5928,13 +7144,13 @@
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="76">
+      <c r="Q16" s="82">
         <v>25</v>
       </c>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="78"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
@@ -5952,11 +7168,11 @@
       <c r="H17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
       <c r="L17" s="7"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
@@ -5965,16 +7181,16 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="22"/>
-      <c r="R17" s="87" t="s">
+      <c r="R17" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="87" t="s">
+      <c r="S17" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="87" t="s">
+      <c r="T17" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="U17" s="87" t="s">
+      <c r="U17" s="85" t="s">
         <v>28</v>
       </c>
       <c r="V17" s="7"/>
@@ -5994,19 +7210,19 @@
       <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
       <c r="L18" s="7"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
@@ -6024,21 +7240,21 @@
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
       <c r="L19" s="7"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="22"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
@@ -6056,11 +7272,11 @@
       <c r="H20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="91" t="s">
+      <c r="I20" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
       <c r="L20" s="7"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -6069,10 +7285,10 @@
         <v>19</v>
       </c>
       <c r="Q20" s="22"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
@@ -6088,21 +7304,21 @@
       <c r="H21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
         <v>1</v>
       </c>
-      <c r="P21" s="85" t="s">
+      <c r="P21" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="Q21" s="86"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="23" t="s">
         <v>25</v>
       </c>
@@ -6131,10 +7347,10 @@
       <c r="O22" s="3">
         <v>2</v>
       </c>
-      <c r="P22" s="85" t="s">
+      <c r="P22" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="90"/>
+      <c r="Q22" s="88"/>
       <c r="R22" s="23" t="s">
         <v>25</v>
       </c>
@@ -6163,10 +7379,10 @@
       <c r="O23" s="3">
         <v>3</v>
       </c>
-      <c r="P23" s="85" t="s">
+      <c r="P23" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="Q23" s="86"/>
+      <c r="Q23" s="80"/>
       <c r="R23" s="23" t="s">
         <v>25</v>
       </c>
@@ -6258,19 +7474,19 @@
     <row r="27" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -6287,19 +7503,19 @@
     <row r="28" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="96" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -6316,19 +7532,19 @@
     <row r="29" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="96" t="s">
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="97"/>
-      <c r="K29" s="98"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="76"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -6345,19 +7561,19 @@
     <row r="30" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="96" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -6382,11 +7598,11 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="96" t="s">
+      <c r="I31" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="76"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -6403,15 +7619,15 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -6451,29 +7667,29 @@
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
@@ -6503,18 +7719,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="56">
-    <mergeCell ref="A34:W34"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="Q13:U13"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q15:U15"/>
@@ -6531,34 +7763,18 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A34:W34"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:K32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:K29" xr:uid="{67865147-175F-624A-95B5-37E6C8A1720F}">
@@ -6588,7 +7804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1813F98D-7B5F-0645-A057-8B206C4C56DD}">
   <dimension ref="A1:A63"/>
   <sheetViews>
@@ -6918,7 +8134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E487070C-4461-4549-BDD6-834D5614FBEC}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -7596,7 +8812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576A217A-8EF1-6446-A286-28970D36D076}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:N40"/>
@@ -8968,7 +10184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C73-3819-4B49-8B62-6AEDA4B400EB}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H26"/>
@@ -9441,184 +10657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74B4D3F-8E89-5642-B881-488DBD752321}">
-  <sheetPr>
-    <tabColor rgb="FF64CAE6"/>
-  </sheetPr>
-  <dimension ref="A2:K30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D5" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B2:H4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" xr:uid="{EE89CB29-6475-754E-84D6-F18D50FA953E}"/>
-    <hyperlink ref="A29" r:id="rId2" xr:uid="{CBCF8C03-B470-DE4A-BB77-2123DC322277}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045BC7410D08BB6469D089E321CC2EC7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="161ca4f384b946b34a358bf569d29397">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb5ff68b-8c1c-4297-b404-8e287296b13b" xmlns:ns3="00c84235-e264-468b-93ec-e72683ef808e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bf1b53b682a759ce60ab55b2e0b08f" ns2:_="" ns3:_="">
     <xsd:import namespace="cb5ff68b-8c1c-4297-b404-8e287296b13b"/>
@@ -9801,32 +10840,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F113D-195D-42B2-AFC2-7327A8A004E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="00c84235-e264-468b-93ec-e72683ef808e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cb5ff68b-8c1c-4297-b404-8e287296b13b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0330EC-6EA4-48EA-9055-43DC3A6E784F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B79086C-2E08-40C7-B985-A0EE282E1AEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9843,4 +10872,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0330EC-6EA4-48EA-9055-43DC3A6E784F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F113D-195D-42B2-AFC2-7327A8A004E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="00c84235-e264-468b-93ec-e72683ef808e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb5ff68b-8c1c-4297-b404-8e287296b13b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fs_workbook.xlsx
+++ b/fs_workbook.xlsx
@@ -1,121 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickk/ricktools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75843801-8B29-D140-A43E-FA6B260BC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F76670-3442-D741-A7B0-F2D359DE0361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42100" yWindow="-260" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DFW" sheetId="17" r:id="rId1"/>
-    <sheet name="WS" sheetId="18" r:id="rId2"/>
-    <sheet name="CTC" sheetId="10" r:id="rId3"/>
-    <sheet name="config" sheetId="16" r:id="rId4"/>
-    <sheet name="General Info JFB" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId6"/>
-    <sheet name="System IPs and Names" sheetId="8" r:id="rId7"/>
-    <sheet name="FS Implementation" sheetId="11" r:id="rId8"/>
-    <sheet name="SAN Implementation" sheetId="13" r:id="rId9"/>
-    <sheet name="Remote Support Requirements" sheetId="7" r:id="rId10"/>
+    <sheet name="OptumRx" sheetId="20" r:id="rId1"/>
+    <sheet name="temp" sheetId="19" r:id="rId2"/>
+    <sheet name="DFW" sheetId="17" r:id="rId3"/>
+    <sheet name="WS" sheetId="18" r:id="rId4"/>
+    <sheet name="CTC" sheetId="10" r:id="rId5"/>
+    <sheet name="config" sheetId="16" r:id="rId6"/>
+    <sheet name="General Info JFB" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId8"/>
+    <sheet name="System IPs and Names" sheetId="8" r:id="rId9"/>
+    <sheet name="FS Implementation" sheetId="11" r:id="rId10"/>
+    <sheet name="SAN Implementation" sheetId="13" r:id="rId11"/>
+    <sheet name="Remote Support Requirements" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="address" localSheetId="2">CTC!$C$5</definedName>
-    <definedName name="address" localSheetId="0">DFW!$C$5</definedName>
-    <definedName name="address" localSheetId="1">WS!$C$5</definedName>
-    <definedName name="city" localSheetId="2">CTC!$C$6</definedName>
-    <definedName name="city" localSheetId="0">DFW!$C$6</definedName>
-    <definedName name="city" localSheetId="1">WS!$C$6</definedName>
-    <definedName name="cluster_ip" localSheetId="2">CTC!$F$10</definedName>
-    <definedName name="cluster_ip" localSheetId="0">DFW!$F$10</definedName>
-    <definedName name="cluster_ip" localSheetId="1">WS!$F$10</definedName>
-    <definedName name="cluster_name_ip" localSheetId="3">config!$B$1</definedName>
-    <definedName name="contact" localSheetId="2">CTC!$C$11</definedName>
-    <definedName name="contact" localSheetId="0">DFW!$C$11</definedName>
-    <definedName name="contact" localSheetId="1">WS!$C$11</definedName>
-    <definedName name="country" localSheetId="2">CTC!$C$9</definedName>
-    <definedName name="country" localSheetId="0">DFW!$C$9</definedName>
-    <definedName name="country" localSheetId="1">WS!$C$9</definedName>
-    <definedName name="default_gateway" localSheetId="2">CTC!$F$16</definedName>
-    <definedName name="default_gateway" localSheetId="0">DFW!$F$16</definedName>
-    <definedName name="default_gateway" localSheetId="1">WS!$F$16</definedName>
-    <definedName name="dns_server_1" localSheetId="2">CTC!$F$4</definedName>
-    <definedName name="dns_server_1" localSheetId="0">DFW!$F$4</definedName>
-    <definedName name="dns_server_1" localSheetId="1">WS!$F$4</definedName>
-    <definedName name="dns_server_2" localSheetId="2">CTC!$F$5</definedName>
-    <definedName name="dns_server_2" localSheetId="0">DFW!$F$5</definedName>
-    <definedName name="dns_server_2" localSheetId="1">WS!$F$5</definedName>
-    <definedName name="email_notify_1" localSheetId="2">CTC!$C$24</definedName>
-    <definedName name="email_notify_1" localSheetId="0">DFW!$C$25</definedName>
-    <definedName name="email_notify_1" localSheetId="1">WS!$C$25</definedName>
-    <definedName name="email_notify_2" localSheetId="2">CTC!$C$25</definedName>
-    <definedName name="email_notify_2" localSheetId="0">DFW!$C$26</definedName>
-    <definedName name="email_notify_2" localSheetId="1">WS!$C$26</definedName>
-    <definedName name="email_notify_3" localSheetId="2">CTC!$C$26</definedName>
-    <definedName name="email_notify_3" localSheetId="0">DFW!$C$27</definedName>
-    <definedName name="email_notify_3" localSheetId="1">WS!$C$27</definedName>
-    <definedName name="email_notify_4" localSheetId="2">CTC!$C$27</definedName>
-    <definedName name="email_notify_4" localSheetId="0">DFW!$C$28</definedName>
-    <definedName name="email_notify_4" localSheetId="1">WS!$C$28</definedName>
-    <definedName name="location" localSheetId="2">CTC!$F$17</definedName>
-    <definedName name="location" localSheetId="0">DFW!$F$17</definedName>
-    <definedName name="location" localSheetId="1">WS!$F$17</definedName>
-    <definedName name="ntp_server" localSheetId="2">CTC!$F$6</definedName>
-    <definedName name="ntp_server" localSheetId="0">DFW!$F$6</definedName>
-    <definedName name="ntp_server" localSheetId="1">WS!$F$6</definedName>
-    <definedName name="organization" localSheetId="2">CTC!$C$4</definedName>
-    <definedName name="organization" localSheetId="0">DFW!$C$4</definedName>
-    <definedName name="organization" localSheetId="4">'General Info JFB'!$I$11</definedName>
-    <definedName name="organization" localSheetId="1">WS!$C$4</definedName>
-    <definedName name="password" localSheetId="3">config!$B$3</definedName>
-    <definedName name="service_ip_1" localSheetId="2">CTC!$F$11</definedName>
-    <definedName name="service_ip_1" localSheetId="0">DFW!$F$11</definedName>
-    <definedName name="service_ip_1" localSheetId="1">WS!$F$11</definedName>
-    <definedName name="service_ip_2" localSheetId="2">CTC!$F$12</definedName>
-    <definedName name="service_ip_2" localSheetId="0">DFW!$F$12</definedName>
-    <definedName name="service_ip_2" localSheetId="1">WS!$F$12</definedName>
-    <definedName name="service_ip_3" localSheetId="2">CTC!$F$13</definedName>
-    <definedName name="service_ip_3" localSheetId="0">DFW!$F$13</definedName>
-    <definedName name="service_ip_3" localSheetId="1">WS!$F$13</definedName>
-    <definedName name="service_ip_4" localSheetId="2">CTC!$F$14</definedName>
-    <definedName name="service_ip_4" localSheetId="0">DFW!$F$14</definedName>
-    <definedName name="service_ip_4" localSheetId="1">WS!$F$14</definedName>
-    <definedName name="smtp_port" localSheetId="2">CTC!$C$22</definedName>
-    <definedName name="smtp_port" localSheetId="0">DFW!$C$23</definedName>
-    <definedName name="smtp_port" localSheetId="1">WS!$C$23</definedName>
-    <definedName name="smtp_server" localSheetId="2">CTC!$C$21</definedName>
-    <definedName name="smtp_server" localSheetId="0">DFW!$C$22</definedName>
-    <definedName name="smtp_server" localSheetId="1">WS!$C$22</definedName>
-    <definedName name="snmp_community" localSheetId="0">DFW!$C$17</definedName>
-    <definedName name="snmp_community" localSheetId="1">WS!$C$17</definedName>
-    <definedName name="snmp_events" localSheetId="0">DFW!$C$19</definedName>
-    <definedName name="snmp_events" localSheetId="1">WS!$C$19</definedName>
-    <definedName name="snmp_port" localSheetId="0">DFW!$C$18</definedName>
-    <definedName name="snmp_port" localSheetId="1">WS!$C$18</definedName>
-    <definedName name="snmp_server" localSheetId="0">DFW!$C$16</definedName>
-    <definedName name="snmp_server" localSheetId="1">WS!$C$16</definedName>
-    <definedName name="state" localSheetId="2">CTC!$C$7</definedName>
-    <definedName name="state" localSheetId="0">DFW!$C$7</definedName>
-    <definedName name="state" localSheetId="1">WS!$C$7</definedName>
-    <definedName name="subnet_mask" localSheetId="2">CTC!$F$15</definedName>
-    <definedName name="subnet_mask" localSheetId="0">DFW!$F$15</definedName>
-    <definedName name="subnet_mask" localSheetId="1">WS!$F$15</definedName>
-    <definedName name="system_name" localSheetId="0">DFW!$F$9</definedName>
-    <definedName name="system_name" localSheetId="1">WS!$F$9</definedName>
-    <definedName name="timezone" localSheetId="2">CTC!$F$7</definedName>
-    <definedName name="timezone" localSheetId="0">DFW!$F$7</definedName>
-    <definedName name="timezone" localSheetId="1">WS!$F$7</definedName>
-    <definedName name="username" localSheetId="3">config!$B$2</definedName>
-    <definedName name="zip" localSheetId="2">CTC!$C$8</definedName>
-    <definedName name="zip" localSheetId="0">DFW!$C$8</definedName>
-    <definedName name="zip" localSheetId="1">WS!$C$8</definedName>
+    <definedName name="address" localSheetId="4">CTC!$C$5</definedName>
+    <definedName name="address" localSheetId="2">DFW!$C$5</definedName>
+    <definedName name="address" localSheetId="0">OptumRx!$C$5</definedName>
+    <definedName name="address" localSheetId="3">WS!$C$5</definedName>
+    <definedName name="city" localSheetId="4">CTC!$C$6</definedName>
+    <definedName name="city" localSheetId="2">DFW!$C$6</definedName>
+    <definedName name="city" localSheetId="0">OptumRx!$C$6</definedName>
+    <definedName name="city" localSheetId="3">WS!$C$6</definedName>
+    <definedName name="cluster_ip" localSheetId="4">CTC!$F$10</definedName>
+    <definedName name="cluster_ip" localSheetId="2">DFW!$F$10</definedName>
+    <definedName name="cluster_ip" localSheetId="0">OptumRx!$F$10</definedName>
+    <definedName name="cluster_ip" localSheetId="3">WS!$F$10</definedName>
+    <definedName name="cluster_name_ip" localSheetId="5">config!$B$1</definedName>
+    <definedName name="contact" localSheetId="4">CTC!$C$11</definedName>
+    <definedName name="contact" localSheetId="2">DFW!$C$11</definedName>
+    <definedName name="contact" localSheetId="0">OptumRx!$C$11</definedName>
+    <definedName name="contact" localSheetId="3">WS!$C$11</definedName>
+    <definedName name="country" localSheetId="4">CTC!$C$9</definedName>
+    <definedName name="country" localSheetId="2">DFW!$C$9</definedName>
+    <definedName name="country" localSheetId="0">OptumRx!$C$9</definedName>
+    <definedName name="country" localSheetId="3">WS!$C$9</definedName>
+    <definedName name="default_gateway" localSheetId="4">CTC!$F$16</definedName>
+    <definedName name="default_gateway" localSheetId="2">DFW!$F$16</definedName>
+    <definedName name="default_gateway" localSheetId="0">OptumRx!$F$16</definedName>
+    <definedName name="default_gateway" localSheetId="3">WS!$F$16</definedName>
+    <definedName name="dns_server_1" localSheetId="4">CTC!$F$4</definedName>
+    <definedName name="dns_server_1" localSheetId="2">DFW!$F$4</definedName>
+    <definedName name="dns_server_1" localSheetId="0">OptumRx!$F$4</definedName>
+    <definedName name="dns_server_1" localSheetId="3">WS!$F$4</definedName>
+    <definedName name="dns_server_2" localSheetId="4">CTC!$F$5</definedName>
+    <definedName name="dns_server_2" localSheetId="2">DFW!$F$5</definedName>
+    <definedName name="dns_server_2" localSheetId="0">OptumRx!$F$5</definedName>
+    <definedName name="dns_server_2" localSheetId="3">WS!$F$5</definedName>
+    <definedName name="email_notify_1" localSheetId="4">CTC!$C$24</definedName>
+    <definedName name="email_notify_1" localSheetId="2">DFW!$C$25</definedName>
+    <definedName name="email_notify_1" localSheetId="0">OptumRx!$C$25</definedName>
+    <definedName name="email_notify_1" localSheetId="3">WS!$C$25</definedName>
+    <definedName name="email_notify_2" localSheetId="4">CTC!$C$25</definedName>
+    <definedName name="email_notify_2" localSheetId="2">DFW!$C$26</definedName>
+    <definedName name="email_notify_2" localSheetId="0">OptumRx!$C$26</definedName>
+    <definedName name="email_notify_2" localSheetId="3">WS!$C$26</definedName>
+    <definedName name="email_notify_3" localSheetId="4">CTC!$C$26</definedName>
+    <definedName name="email_notify_3" localSheetId="2">DFW!$C$27</definedName>
+    <definedName name="email_notify_3" localSheetId="0">OptumRx!$C$27</definedName>
+    <definedName name="email_notify_3" localSheetId="3">WS!$C$27</definedName>
+    <definedName name="email_notify_4" localSheetId="4">CTC!$C$27</definedName>
+    <definedName name="email_notify_4" localSheetId="2">DFW!$C$28</definedName>
+    <definedName name="email_notify_4" localSheetId="0">OptumRx!$C$28</definedName>
+    <definedName name="email_notify_4" localSheetId="3">WS!$C$28</definedName>
+    <definedName name="location" localSheetId="4">CTC!$F$17</definedName>
+    <definedName name="location" localSheetId="2">DFW!$F$17</definedName>
+    <definedName name="location" localSheetId="0">OptumRx!$F$17</definedName>
+    <definedName name="location" localSheetId="3">WS!$F$17</definedName>
+    <definedName name="ntp_server" localSheetId="4">CTC!$F$6</definedName>
+    <definedName name="ntp_server" localSheetId="2">DFW!$F$6</definedName>
+    <definedName name="ntp_server" localSheetId="0">OptumRx!$F$6</definedName>
+    <definedName name="ntp_server" localSheetId="3">WS!$F$6</definedName>
+    <definedName name="organization" localSheetId="4">CTC!$C$4</definedName>
+    <definedName name="organization" localSheetId="2">DFW!$C$4</definedName>
+    <definedName name="organization" localSheetId="6">'General Info JFB'!$I$11</definedName>
+    <definedName name="organization" localSheetId="0">OptumRx!$C$4</definedName>
+    <definedName name="organization" localSheetId="3">WS!$C$4</definedName>
+    <definedName name="password" localSheetId="5">config!$B$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">temp!$A$1:$W$42</definedName>
+    <definedName name="service_ip_1" localSheetId="4">CTC!$F$11</definedName>
+    <definedName name="service_ip_1" localSheetId="2">DFW!$F$11</definedName>
+    <definedName name="service_ip_1" localSheetId="0">OptumRx!$F$11</definedName>
+    <definedName name="service_ip_1" localSheetId="3">WS!$F$11</definedName>
+    <definedName name="service_ip_2" localSheetId="4">CTC!$F$12</definedName>
+    <definedName name="service_ip_2" localSheetId="2">DFW!$F$12</definedName>
+    <definedName name="service_ip_2" localSheetId="0">OptumRx!$F$12</definedName>
+    <definedName name="service_ip_2" localSheetId="3">WS!$F$12</definedName>
+    <definedName name="service_ip_3" localSheetId="4">CTC!$F$13</definedName>
+    <definedName name="service_ip_3" localSheetId="2">DFW!$F$13</definedName>
+    <definedName name="service_ip_3" localSheetId="0">OptumRx!$F$13</definedName>
+    <definedName name="service_ip_3" localSheetId="3">WS!$F$13</definedName>
+    <definedName name="service_ip_4" localSheetId="4">CTC!$F$14</definedName>
+    <definedName name="service_ip_4" localSheetId="2">DFW!$F$14</definedName>
+    <definedName name="service_ip_4" localSheetId="0">OptumRx!$F$14</definedName>
+    <definedName name="service_ip_4" localSheetId="3">WS!$F$14</definedName>
+    <definedName name="smtp_port" localSheetId="4">CTC!$C$22</definedName>
+    <definedName name="smtp_port" localSheetId="2">DFW!$C$23</definedName>
+    <definedName name="smtp_port" localSheetId="0">OptumRx!$C$23</definedName>
+    <definedName name="smtp_port" localSheetId="3">WS!$C$23</definedName>
+    <definedName name="smtp_server" localSheetId="4">CTC!$C$21</definedName>
+    <definedName name="smtp_server" localSheetId="2">DFW!$C$22</definedName>
+    <definedName name="smtp_server" localSheetId="0">OptumRx!$C$22</definedName>
+    <definedName name="smtp_server" localSheetId="3">WS!$C$22</definedName>
+    <definedName name="snmp_community" localSheetId="2">DFW!$C$17</definedName>
+    <definedName name="snmp_community" localSheetId="0">OptumRx!$C$17</definedName>
+    <definedName name="snmp_community" localSheetId="3">WS!$C$17</definedName>
+    <definedName name="snmp_events" localSheetId="2">DFW!$C$19</definedName>
+    <definedName name="snmp_events" localSheetId="0">OptumRx!$C$19</definedName>
+    <definedName name="snmp_events" localSheetId="3">WS!$C$19</definedName>
+    <definedName name="snmp_port" localSheetId="2">DFW!$C$18</definedName>
+    <definedName name="snmp_port" localSheetId="0">OptumRx!$C$18</definedName>
+    <definedName name="snmp_port" localSheetId="3">WS!$C$18</definedName>
+    <definedName name="snmp_server" localSheetId="2">DFW!$C$16</definedName>
+    <definedName name="snmp_server" localSheetId="0">OptumRx!$C$16</definedName>
+    <definedName name="snmp_server" localSheetId="3">WS!$C$16</definedName>
+    <definedName name="state" localSheetId="4">CTC!$C$7</definedName>
+    <definedName name="state" localSheetId="2">DFW!$C$7</definedName>
+    <definedName name="state" localSheetId="0">OptumRx!$C$7</definedName>
+    <definedName name="state" localSheetId="3">WS!$C$7</definedName>
+    <definedName name="subnet_mask" localSheetId="4">CTC!$F$15</definedName>
+    <definedName name="subnet_mask" localSheetId="2">DFW!$F$15</definedName>
+    <definedName name="subnet_mask" localSheetId="0">OptumRx!$F$15</definedName>
+    <definedName name="subnet_mask" localSheetId="3">WS!$F$15</definedName>
+    <definedName name="system_name" localSheetId="2">DFW!$F$9</definedName>
+    <definedName name="system_name" localSheetId="0">OptumRx!$F$9</definedName>
+    <definedName name="system_name" localSheetId="3">WS!$F$9</definedName>
+    <definedName name="timezone" localSheetId="4">CTC!$F$7</definedName>
+    <definedName name="timezone" localSheetId="2">DFW!$F$7</definedName>
+    <definedName name="timezone" localSheetId="0">OptumRx!$F$7</definedName>
+    <definedName name="timezone" localSheetId="3">WS!$F$7</definedName>
+    <definedName name="username" localSheetId="5">config!$B$2</definedName>
+    <definedName name="zip" localSheetId="4">CTC!$C$8</definedName>
+    <definedName name="zip" localSheetId="2">DFW!$C$8</definedName>
+    <definedName name="zip" localSheetId="0">OptumRx!$C$8</definedName>
+    <definedName name="zip" localSheetId="3">WS!$C$8</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="444">
   <si>
     <t>Subnet mask</t>
   </si>
@@ -1336,20 +1369,164 @@
     <t>DFW</t>
   </si>
   <si>
-    <t>172.22.17.90</t>
-  </si>
-  <si>
     <t>error/warning/info</t>
   </si>
   <si>
     <t>10.150.10.90</t>
+  </si>
+  <si>
+    <t>612.805.2882</t>
+  </si>
+  <si>
+    <t>612.321.1854</t>
+  </si>
+  <si>
+    <t>952.210.2804</t>
+  </si>
+  <si>
+    <t>CTCIFST4</t>
+  </si>
+  <si>
+    <t>IBM Customer No.</t>
+  </si>
+  <si>
+    <t>SMTP Server IP</t>
+  </si>
+  <si>
+    <t>Flashsystem MTM SN</t>
+  </si>
+  <si>
+    <t>4662-6H2</t>
+  </si>
+  <si>
+    <t>Optum</t>
+  </si>
+  <si>
+    <t>uhc.com</t>
+  </si>
+  <si>
+    <t>UHG IBMi Storage</t>
+  </si>
+  <si>
+    <t>10.208.128.169</t>
+  </si>
+  <si>
+    <t>iCOE_Storage_DL@DS.uhc.com</t>
+  </si>
+  <si>
+    <t>10.208.128.170</t>
+  </si>
+  <si>
+    <t>763-383-2945,ICTC</t>
+  </si>
+  <si>
+    <t>10.208.128.171</t>
+  </si>
+  <si>
+    <t>952-933-7769</t>
+  </si>
+  <si>
+    <t>255.255.252.0</t>
+  </si>
+  <si>
+    <t>10.208.128.1</t>
+  </si>
+  <si>
+    <t>10.4.148.103</t>
+  </si>
+  <si>
+    <t>Chaska, MN 55427</t>
+  </si>
+  <si>
+    <t>10.175.224.2</t>
+  </si>
+  <si>
+    <t>SR2</t>
+  </si>
+  <si>
+    <t>172.16.0.4</t>
+  </si>
+  <si>
+    <t>Encryption Preferences</t>
+  </si>
+  <si>
+    <t>Replication Partnership Information</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pri</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Partner System Name</t>
+  </si>
+  <si>
+    <t>Key Server 1</t>
+  </si>
+  <si>
+    <t>Partner System GUI IP</t>
+  </si>
+  <si>
+    <t>Key Server 2</t>
+  </si>
+  <si>
+    <t>Replication IP1</t>
+  </si>
+  <si>
+    <t>Key Server 3</t>
+  </si>
+  <si>
+    <t>Replication IP2</t>
+  </si>
+  <si>
+    <t>Key Server 4</t>
+  </si>
+  <si>
+    <t>Replication IP3</t>
+  </si>
+  <si>
+    <t>Common SSL Certificate</t>
+  </si>
+  <si>
+    <t>email to Evolving Solutions team or specify location</t>
+  </si>
+  <si>
+    <t>Replication IP4</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t>On Demand</t>
+  </si>
+  <si>
+    <t>transitional</t>
+  </si>
+  <si>
+    <t>We highly recommend connecting to Storage Insights</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>flashsystem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +1713,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1625,7 +1809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1915,6 +2099,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1922,7 +2115,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2058,6 +2251,29 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2079,6 +2295,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2093,12 +2313,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2118,11 +2332,119 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2130,10 +2452,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2173,13 +2491,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2192,40 +2503,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{CBA8EF69-03D8-6744-ACBE-6B606E59D538}"/>
@@ -2233,35 +2510,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{D7EB26E9-A925-504F-B52A-277B73F7C63C}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2539,6 +2788,1045 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 13" descr="Selected">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE59A01B-8243-7A4D-AC29-15F788F864C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5461000" y="3251200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 14" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9272311-F5EF-9B4D-98FE-DECB476A91B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 15" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0799A940-BD6E-0C40-92B7-1552AE183188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 16" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8D4901-C231-4349-8632-54FDBD0A58C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 17" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10934A2-28ED-264A-A590-467EAA1A67E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 18" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29697EA5-AB8E-2D45-A6B5-1A8F42F972F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 19" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEF6DD0-FBF7-DD42-8A72-FA3E4D18B6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 20" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E793486-65FE-5D4F-9FBF-026EBCA30C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 21" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C7CA2D-861F-4144-B5B6-CE90C90C6AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 22" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313ED197-F8DE-7C43-869E-1BB84E6E4AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="3632200"/>
+          <a:ext cx="157082" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 13" descr="Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EACB2B4-E398-A34C-91E6-42E5123A616E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="3187700"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 14" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26977E6C-CB1A-304E-8970-4F73BE3BF246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="3352800"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 15" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C4A3FA-4375-1843-BF5C-29EC3AB14E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="3530600"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 16" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DC50BE-91DC-A247-BDC6-9D643FFDA03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="3708400"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 17" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DAE132-3AED-E645-8832-2F135365CBED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="3898900"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 18" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98949B42-61C4-A549-90E2-D1CC64BBDE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="4076700"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 19" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8552D67-6061-F744-8432-F3205B1C8FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="4254500"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 20" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C10B057-7788-2646-931C-1D423105E4E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="4432300"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 21" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CAA57D-A546-DB4C-8794-B19C6BAF0128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="4965700"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 22" descr="Not Selected">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FD931A-1853-584D-893A-A4D395C426C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12065000" y="5143500"/>
+          <a:ext cx="158327" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98066</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133253</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>36516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7058B2FA-28E6-BC4F-9F45-5EDA311D4EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9038866" y="5368193"/>
+          <a:ext cx="2511687" cy="1145323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3032,7 +4320,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3526,7 +4814,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4020,7 +5308,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4584,29 +5872,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B4C709D-2F5C-A549-AD4E-3F7867585E71}" name="Table1" displayName="Table1" ref="A1:M15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B4C709D-2F5C-A549-AD4E-3F7867585E71}" name="Table1" displayName="Table1" ref="A1:M15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
   <autoFilter ref="A1:M15" xr:uid="{5B4C709D-2F5C-A549-AD4E-3F7867585E71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
     <sortCondition descending="1" ref="B1:B15"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1E7295DD-5706-DC45-BA48-4435624DC0AB}" name="Device" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{2EB5B459-B66D-484C-960F-4E5B79EA38AD}" name="Site" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BC798004-2A02-E646-A0FF-2F83040C83C5}" name="System Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F9FE0D26-906B-A840-934F-0A5A793F84DF}" name="Primary Management IP" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{2917E28F-277C-7848-B8FD-4A0592F45D7E}" name="Canister 1 Service IP" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{E87BA95A-FB27-754C-9625-EFD6BE47BA43}" name="Canister 2 Service IP" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{1E7295DD-5706-DC45-BA48-4435624DC0AB}" name="Device" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2EB5B459-B66D-484C-960F-4E5B79EA38AD}" name="Site" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BC798004-2A02-E646-A0FF-2F83040C83C5}" name="System Name" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F9FE0D26-906B-A840-934F-0A5A793F84DF}" name="Primary Management IP" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{2917E28F-277C-7848-B8FD-4A0592F45D7E}" name="Canister 1 Service IP" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E87BA95A-FB27-754C-9625-EFD6BE47BA43}" name="Canister 2 Service IP" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{1F99EFB1-C926-7E4B-A813-4A1B5559B038}" name="Subnet Mask"/>
     <tableColumn id="8" xr3:uid="{3C8F0015-8D37-6941-A3B8-C85824014D80}" name="Default Gateway"/>
-    <tableColumn id="7" xr3:uid="{605BA756-AF89-9946-B0A8-54AE52888A09}" name="DC Row, Rack, U" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{DAEBDF8E-1678-EA42-BA5E-95648B5977E3}" name="Serial Number" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{BFC57B50-7FC1-FF40-8614-61C51984299D}" name="Service IP 1" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{605BA756-AF89-9946-B0A8-54AE52888A09}" name="DC Row, Rack, U" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{DAEBDF8E-1678-EA42-BA5E-95648B5977E3}" name="Serial Number" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{BFC57B50-7FC1-FF40-8614-61C51984299D}" name="Service IP 1" dataDxfId="4">
       <calculatedColumnFormula>"satask chserviceip -gw "&amp;Table1[[#This Row],[Default Gateway]]&amp;" -mask "&amp;Table1[[#This Row],[Subnet Mask]]&amp;" -serviceip "&amp;Table1[[#This Row],[Canister 1 Service IP]]&amp;" 01-1"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{377AE290-8E4C-D540-A92F-403E2CCE3F5D}" name="Service IP 2" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{377AE290-8E4C-D540-A92F-403E2CCE3F5D}" name="Service IP 2" dataDxfId="3">
       <calculatedColumnFormula>"satask chserviceip -gw "&amp;Table1[[#This Row],[Default Gateway]]&amp;" -mask "&amp;Table1[[#This Row],[Subnet Mask]]&amp;" -serviceip "&amp;Table1[[#This Row],[Canister 2 Service IP]]&amp;" 01-2"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0D8F2B6B-FA00-2B4E-9B2E-17353DBFA915}" name="Service IP 3" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{0D8F2B6B-FA00-2B4E-9B2E-17353DBFA915}" name="Service IP 3" dataDxfId="2">
       <calculatedColumnFormula>"svctask chemail -address '9010 Plymouth Ave' -city 'Golden Valley' -contact 'Datacenter Operations' -country US -location '"&amp;Table1[[#This Row],[DC Row, Rack, U]]&amp;"' -organization 'General Mills, Inc.' -primary 763-764-4194 -reply platform.vendor.support@genmills.com -state MN -zip 55426"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4891,15 +6179,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED2BDFD-3561-9A4F-B3D9-EF0F36859B7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B17A4B-8655-6A43-891F-3763171C5A57}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4929,35 +6217,35 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="C3" s="76"/>
+      <c r="E3" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>367</v>
+      <c r="C4" s="65" t="s">
+        <v>403</v>
       </c>
       <c r="E4" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="F4" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -4965,17 +6253,17 @@
         <v>282</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="F5" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
@@ -4983,17 +6271,17 @@
         <v>283</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="F6" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
@@ -5001,17 +6289,17 @@
         <v>284</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="E7" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -5019,7 +6307,7 @@
         <v>289</v>
       </c>
       <c r="C8" s="53">
-        <v>75050</v>
+        <v>55427</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>318</v>
@@ -5040,12 +6328,12 @@
       <c r="E9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="F9" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -5056,12 +6344,12 @@
       <c r="E10" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>395</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
+      <c r="F10" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
@@ -5069,17 +6357,3817 @@
         <v>286</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="E15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="E16" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="53">
+        <v>162</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="E20" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="53">
+        <v>514</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="E22" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="53"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="15">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{2F93D3CD-26E8-9449-A735-84FAFC0E48FE}">
+      <formula1>"error,error/warning,error/warning/info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:I7" xr:uid="{62AC1778-9823-8F4C-9A49-6340DCF6FDDD}">
+      <formula1>INDIRECT("tbl_timezones[timezone]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.15" right="0.15" top="0.5" bottom="0.5" header="0.05" footer="0.05"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576A217A-8EF1-6446-A286-28970D36D076}">
+  <sheetPr codeName="Sheet58"/>
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="3.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" s="38" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="C2" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L34" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="N39" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L40" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="C3:L40">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(C3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C73-3819-4B49-8B62-6AEDA4B400EB}">
+  <sheetPr codeName="Sheet59"/>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" s="38" customFormat="1" ht="49" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="C2" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="H20" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="H21" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="41">
+        <v>11</v>
+      </c>
+      <c r="D22" s="41">
+        <v>12</v>
+      </c>
+      <c r="E22" s="43">
+        <v>111</v>
+      </c>
+      <c r="F22" s="43">
+        <v>112</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="C3:F26">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74B4D3F-8E89-5642-B881-488DBD752321}">
+  <sheetPr>
+    <tabColor rgb="FF64CAE6"/>
+  </sheetPr>
+  <dimension ref="A2:K30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D5" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B2:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" xr:uid="{EE89CB29-6475-754E-84D6-F18D50FA953E}"/>
+    <hyperlink ref="A29" r:id="rId2" xr:uid="{CBCF8C03-B470-DE4A-BB77-2123DC322277}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC8D9B6-A0B0-224D-8D61-19CF6D9E5923}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="1.1640625" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" customWidth="1"/>
+    <col min="13" max="13" width="0.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.5" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="18" max="21" width="2.5" customWidth="1"/>
+    <col min="22" max="22" width="1" customWidth="1"/>
+    <col min="23" max="23" width="0.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="K2" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="K3" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="113"/>
+      <c r="M3" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="113" t="s">
+        <v>395</v>
+      </c>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="K4" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="113"/>
+      <c r="M4" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="113" t="s">
+        <v>396</v>
+      </c>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="D5" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="K5" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="107" t="s">
+        <v>397</v>
+      </c>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+    </row>
+    <row r="8" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="103"/>
+      <c r="E11" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="103"/>
+      <c r="E12" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="12">
+        <v>2</v>
+      </c>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="12">
+        <v>3</v>
+      </c>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="12">
+        <v>4</v>
+      </c>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="12">
+        <v>5</v>
+      </c>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="12">
+        <v>6</v>
+      </c>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="96"/>
+      <c r="H25" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>425</v>
+      </c>
+      <c r="K25" s="97"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="90" t="s">
+        <v>426</v>
+      </c>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="O26" s="78"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="O27" s="78"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="O29" s="78"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J33" s="81"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="81"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+    </row>
+    <row r="36" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80" t="s">
+        <v>440</v>
+      </c>
+      <c r="J36" s="81"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="37" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="J37" s="81"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+    </row>
+    <row r="38" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="83"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+    </row>
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="87">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="A41:W41"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="I39:K39"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35:K35" xr:uid="{9A4C9E65-3B7F-444C-BE2A-7E3C2CEA621E}">
+      <formula1>"Anytime, On Demand"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{780C49B9-4E46-2B4B-9D87-581AE631BE1E}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{774DEECB-214C-E441-9963-3EB2D823D005}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{6109EC7D-F6AA-D944-9C80-030C7E66867A}"/>
+    <hyperlink ref="I13:K13" r:id="rId4" display="iCOE_Storage_DL@DS.uhc.com" xr:uid="{7E37FEB1-392C-9944-A454-4BFFC0B555C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.15" right="0.15" top="0.5" bottom="0.5" header="0.05" footer="0.05"/>
+  <pageSetup scale="84" orientation="landscape" horizontalDpi="4294967292" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED2BDFD-3561-9A4F-B3D9-EF0F36859B7B}">
+  <sheetPr>
+    <tabColor rgb="FFA2CA62"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="54" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="E3" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="53">
+        <v>75050</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="E10" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -5092,12 +10180,12 @@
       <c r="E12" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
@@ -5110,10 +10198,10 @@
       <c r="E13" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
@@ -5126,10 +10214,10 @@
       <c r="E14" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -5140,12 +10228,12 @@
       <c r="E15" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
@@ -5158,12 +10246,12 @@
       <c r="E16" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
@@ -5176,12 +10264,12 @@
       <c r="E17" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="69" t="s">
         <v>392</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -5212,7 +10300,7 @@
         <v>380</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="55" t="s">
@@ -5378,169 +10466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74B4D3F-8E89-5642-B881-488DBD752321}">
-  <sheetPr>
-    <tabColor rgb="FF64CAE6"/>
-  </sheetPr>
-  <dimension ref="A2:K30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D5" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B2:H4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" xr:uid="{EE89CB29-6475-754E-84D6-F18D50FA953E}"/>
-    <hyperlink ref="A29" r:id="rId2" xr:uid="{CBCF8C03-B470-DE4A-BB77-2123DC322277}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC664440-6188-D14B-B0F0-4CF27EC52BFB}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
@@ -5548,7 +10474,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5579,17 +10505,17 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="C3" s="76"/>
+      <c r="E3" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
@@ -5602,12 +10528,12 @@
       <c r="E4" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -5620,12 +10546,12 @@
       <c r="E5" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
@@ -5638,12 +10564,12 @@
       <c r="E6" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
@@ -5656,12 +10582,12 @@
       <c r="E7" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -5690,12 +10616,12 @@
       <c r="E9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -5706,12 +10632,12 @@
       <c r="E10" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
@@ -5724,12 +10650,12 @@
       <c r="E11" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -5742,12 +10668,12 @@
       <c r="E12" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
@@ -5760,10 +10686,10 @@
       <c r="E13" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
@@ -5776,10 +10702,10 @@
       <c r="E14" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -5790,12 +10716,12 @@
       <c r="E15" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
@@ -5808,12 +10734,12 @@
       <c r="E16" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
@@ -5826,12 +10752,12 @@
       <c r="E17" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -5862,7 +10788,7 @@
         <v>380</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="55" t="s">
@@ -6003,12 +10929,12 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{7670F26A-1212-EF4F-874E-6021434B22EC}">
@@ -6028,7 +10954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD86965-269F-B544-9F28-2E2F6C657F24}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
@@ -6067,17 +10993,17 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="C3" s="76"/>
+      <c r="E3" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
@@ -6090,12 +11016,12 @@
       <c r="E4" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -6108,12 +11034,12 @@
       <c r="E5" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="77" t="s">
         <v>312</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
@@ -6126,12 +11052,12 @@
       <c r="E6" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
@@ -6144,12 +11070,12 @@
       <c r="E7" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -6178,12 +11104,12 @@
       <c r="E9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -6194,12 +11120,12 @@
       <c r="E10" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
@@ -6212,12 +11138,12 @@
       <c r="E11" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -6230,12 +11156,12 @@
       <c r="E12" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
@@ -6248,12 +11174,12 @@
       <c r="E13" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
@@ -6264,12 +11190,12 @@
       <c r="E14" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -6280,12 +11206,12 @@
       <c r="E15" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
@@ -6296,12 +11222,12 @@
       <c r="E16" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
@@ -6314,12 +11240,12 @@
       <c r="E17" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="116" t="s">
         <v>332</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -6503,7 +11429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C3965-A6AE-214F-A358-2C9E3F355CA9}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
@@ -6511,7 +11437,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6521,7 +11447,7 @@
         <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="G1" t="s">
         <v>358</v>
@@ -6696,7 +11622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312D0E0C-BC12-F34D-B509-155A539DF61B}">
   <sheetPr>
     <tabColor rgb="FFA2CA62"/>
@@ -6734,133 +11660,133 @@
   <sheetData>
     <row r="1" spans="1:23" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="K2" s="99" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="K2" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="K3" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101" t="s">
+      <c r="L3" s="113"/>
+      <c r="M3" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="100" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="K4" s="100" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="K4" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="113"/>
+      <c r="M4" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="100" t="s">
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="K5" s="104" t="s">
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="K5" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105" t="s">
+      <c r="L5" s="107"/>
+      <c r="M5" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="104" t="s">
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
     </row>
     <row r="8" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -6889,20 +11815,20 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="7"/>
       <c r="M9" s="19" t="s">
         <v>13</v>
@@ -6921,18 +11847,18 @@
     <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="32" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="7"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -6940,29 +11866,29 @@
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="131"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="7"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -6970,23 +11896,23 @@
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="82" t="s">
+      <c r="Q11" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="121"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="11" t="s">
         <v>106</v>
       </c>
@@ -6994,11 +11920,11 @@
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="7"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -7006,13 +11932,13 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="82">
+      <c r="Q12" s="119">
         <v>162</v>
       </c>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="121"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
@@ -7030,11 +11956,11 @@
       <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="97" t="s">
+      <c r="I13" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="7"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -7042,11 +11968,11 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="121"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
@@ -7064,11 +11990,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="7"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -7076,13 +12002,13 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="82">
+      <c r="Q14" s="119">
         <v>514</v>
       </c>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="121"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
     </row>
@@ -7100,9 +12026,9 @@
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="7"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -7110,13 +12036,13 @@
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="82" t="s">
+      <c r="Q15" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="84"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="121"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
@@ -7134,9 +12060,9 @@
       <c r="H16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="7"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -7144,13 +12070,13 @@
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="82">
+      <c r="Q16" s="119">
         <v>25</v>
       </c>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="84"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="121"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
@@ -7168,11 +12094,11 @@
       <c r="H17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="7"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
@@ -7181,16 +12107,16 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="22"/>
-      <c r="R17" s="85" t="s">
+      <c r="R17" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="85" t="s">
+      <c r="S17" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="85" t="s">
+      <c r="T17" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="U17" s="85" t="s">
+      <c r="U17" s="122" t="s">
         <v>28</v>
       </c>
       <c r="V17" s="7"/>
@@ -7210,19 +12136,19 @@
       <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="7"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
@@ -7240,21 +12166,21 @@
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="81" t="s">
+      <c r="I19" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="7"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="22"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
@@ -7272,11 +12198,11 @@
       <c r="H20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="128"/>
       <c r="L20" s="7"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -7285,10 +12211,10 @@
         <v>19</v>
       </c>
       <c r="Q20" s="22"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
@@ -7304,21 +12230,21 @@
       <c r="H21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="89" t="s">
+      <c r="I21" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="128"/>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
         <v>1</v>
       </c>
-      <c r="P21" s="79" t="s">
+      <c r="P21" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="Q21" s="80"/>
+      <c r="Q21" s="118"/>
       <c r="R21" s="23" t="s">
         <v>25</v>
       </c>
@@ -7347,10 +12273,10 @@
       <c r="O22" s="3">
         <v>2</v>
       </c>
-      <c r="P22" s="79" t="s">
+      <c r="P22" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="88"/>
+      <c r="Q22" s="125"/>
       <c r="R22" s="23" t="s">
         <v>25</v>
       </c>
@@ -7379,10 +12305,10 @@
       <c r="O23" s="3">
         <v>3</v>
       </c>
-      <c r="P23" s="79" t="s">
+      <c r="P23" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="Q23" s="80"/>
+      <c r="Q23" s="118"/>
       <c r="R23" s="23" t="s">
         <v>25</v>
       </c>
@@ -7474,19 +12400,19 @@
     <row r="27" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="74" t="s">
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="75"/>
-      <c r="K27" s="76"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -7503,19 +12429,19 @@
     <row r="28" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="74" t="s">
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="75"/>
-      <c r="K28" s="76"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -7532,19 +12458,19 @@
     <row r="29" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74" t="s">
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="75"/>
-      <c r="K29" s="76"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -7561,19 +12487,19 @@
     <row r="30" spans="1:23" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="74" t="s">
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="75"/>
-      <c r="K30" s="76"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -7598,11 +12524,11 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="74" t="s">
+      <c r="I31" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -7619,15 +12545,15 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="76"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -7667,29 +12593,29 @@
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="1:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
@@ -7804,7 +12730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1813F98D-7B5F-0645-A057-8B206C4C56DD}">
   <dimension ref="A1:A63"/>
   <sheetViews>
@@ -8134,7 +13060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E487070C-4461-4549-BDD6-834D5614FBEC}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -8812,1852 +13738,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576A217A-8EF1-6446-A286-28970D36D076}">
-  <sheetPr codeName="Sheet58"/>
-  <dimension ref="A1:N40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.83203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="3.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" s="38" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="C2" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K21" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K23" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L23" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K25" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L25" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K26" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L26" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I27" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K27" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L27" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K31" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L31" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K32" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L32" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I33" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K33" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L33" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G34" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K34" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L34" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L35" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L36" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J37" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K37" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L37" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L38" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K39" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L39" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="N39" s="35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L40" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C3:L37">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(C3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:L38">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(C38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:L39">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(C39))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:L40">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(C40))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C73-3819-4B49-8B62-6AEDA4B400EB}">
-  <sheetPr codeName="Sheet59"/>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.83203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" s="38" customFormat="1" ht="49" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="C2" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="H20" s="35" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="H21" s="35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="41">
-        <v>11</v>
-      </c>
-      <c r="D22" s="41">
-        <v>12</v>
-      </c>
-      <c r="E22" s="43">
-        <v>111</v>
-      </c>
-      <c r="F22" s="43">
-        <v>112</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C3:F25">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(C3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:F26">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045BC7410D08BB6469D089E321CC2EC7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="161ca4f384b946b34a358bf569d29397">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb5ff68b-8c1c-4297-b404-8e287296b13b" xmlns:ns3="00c84235-e264-468b-93ec-e72683ef808e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bf1b53b682a759ce60ab55b2e0b08f" ns2:_="" ns3:_="">
     <xsd:import namespace="cb5ff68b-8c1c-4297-b404-8e287296b13b"/>
@@ -10840,22 +13936,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0330EC-6EA4-48EA-9055-43DC3A6E784F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F113D-195D-42B2-AFC2-7327A8A004E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="00c84235-e264-468b-93ec-e72683ef808e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb5ff68b-8c1c-4297-b404-8e287296b13b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B79086C-2E08-40C7-B985-A0EE282E1AEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10872,29 +13978,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0330EC-6EA4-48EA-9055-43DC3A6E784F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F113D-195D-42B2-AFC2-7327A8A004E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="00c84235-e264-468b-93ec-e72683ef808e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cb5ff68b-8c1c-4297-b404-8e287296b13b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>